--- a/data/6_tables/tables_appendix/App_Table5_scc337_main.xlsx
+++ b/data/6_tables/tables_appendix/App_Table5_scc337_main.xlsx
@@ -1872,7 +1872,7 @@
         <v>0.052322582391666935</v>
       </c>
       <c r="F19" s="1">
-        <v>0.10166393808229297</v>
+        <v>0.13425339547751908</v>
       </c>
       <c r="G19" s="1">
         <v>0.48799175520737964</v>
@@ -1881,7 +1881,7 @@
         <v>-0.044276531785726547</v>
       </c>
       <c r="I19" s="1">
-        <v>1.7008955898545428</v>
+        <v>1.7334850472497685</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -1890,13 +1890,13 @@
         <v>0.093695417046546936</v>
       </c>
       <c r="L19" s="1">
-        <v>-0.0073472309780824663</v>
+        <v>-0.0079836730830078664</v>
       </c>
       <c r="M19" s="1">
-        <v>1.0863481826752084</v>
+        <v>1.0857117405702832</v>
       </c>
       <c r="N19" s="1">
-        <v>1.5657001733779907</v>
+        <v>1.5966347455978394</v>
       </c>
     </row>
     <row r="20">
@@ -1916,7 +1916,7 @@
         <v>0.062786603149798503</v>
       </c>
       <c r="F20" s="1">
-        <v>0.14177514802873131</v>
+        <v>0.1881178260287642</v>
       </c>
       <c r="G20" s="1">
         <v>0.60980051755905151</v>
@@ -1925,7 +1925,7 @@
         <v>-0.053131420165300369</v>
       </c>
       <c r="I20" s="1">
-        <v>1.8850624875447111</v>
+        <v>1.931405165544744</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -1934,13 +1934,13 @@
         <v>0.11100723594427109</v>
       </c>
       <c r="L20" s="1">
-        <v>-0.0091703773124376005</v>
+        <v>-0.0100754071561852</v>
       </c>
       <c r="M20" s="1">
-        <v>1.101836855656801</v>
+        <v>1.1009318258130541</v>
       </c>
       <c r="N20" s="1">
-        <v>1.7108362983747101</v>
+        <v>1.7543367538842589</v>
       </c>
     </row>
     <row r="21">
@@ -1960,7 +1960,7 @@
         <v>0.055939925544497497</v>
       </c>
       <c r="F21" s="1">
-        <v>0.1077923875994608</v>
+        <v>0.14220198751829571</v>
       </c>
       <c r="G21" s="1">
         <v>0.52080470323562622</v>
@@ -1969,7 +1969,7 @@
         <v>-0.047337606549263001</v>
       </c>
       <c r="I21" s="1">
-        <v>1.747527603187006</v>
+        <v>1.7819372031058409</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -1978,13 +1978,13 @@
         <v>0.098902247846126556</v>
       </c>
       <c r="L21" s="1">
-        <v>-0.0078392973498600995</v>
+        <v>-0.0085112851628635008</v>
       </c>
       <c r="M21" s="1">
-        <v>1.091062953061497</v>
+        <v>1.090390965248494</v>
       </c>
       <c r="N21" s="1">
-        <v>1.6016744022730169</v>
+        <v>1.634218605892197</v>
       </c>
     </row>
     <row r="22">
@@ -2004,7 +2004,7 @@
         <v>0.038241218480704803</v>
       </c>
       <c r="F22" s="1">
-        <v>0.055424278618686797</v>
+        <v>0.072440372885497303</v>
       </c>
       <c r="G22" s="1">
         <v>0.33337004482746119</v>
@@ -2013,7 +2013,7 @@
         <v>-0.032360568642616272</v>
       </c>
       <c r="I22" s="1">
-        <v>1.470096678831911</v>
+        <v>1.487112773098721</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -2022,13 +2022,13 @@
         <v>0.071176759898662567</v>
       </c>
       <c r="L22" s="1">
-        <v>-0.0050320182719496998</v>
+        <v>-0.0053643269299749</v>
       </c>
       <c r="M22" s="1">
-        <v>1.0661447393073269</v>
+        <v>1.065812430649302</v>
       </c>
       <c r="N22" s="1">
-        <v>1.378890336960281</v>
+        <v>1.39528563407049</v>
       </c>
     </row>
     <row r="23">
@@ -2048,7 +2048,7 @@
         <v>-0.044047702563176902</v>
       </c>
       <c r="F23" s="1">
-        <v>1.1500253351400001e-08</v>
+        <v>1.4470571800600001e-08</v>
       </c>
       <c r="G23" s="1">
         <v>0.0001458572805859</v>
@@ -2057,7 +2057,7 @@
         <v>0.037274144589900971</v>
       </c>
       <c r="I23" s="1">
-        <v>0.90649869669805716</v>
+        <v>0.90649869966837571</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -2066,13 +2066,13 @@
         <v>-0.077876701951026917</v>
       </c>
       <c r="L23" s="1">
-        <v>0.0046465673566977997</v>
+        <v>0.0046465672986902001</v>
       </c>
       <c r="M23" s="1">
-        <v>0.92676986540286732</v>
+        <v>0.92676986534485972</v>
       </c>
       <c r="N23" s="1">
-        <v>0.97812707397861032</v>
+        <v>0.97812707724485526</v>
       </c>
     </row>
     <row r="24">
@@ -2655,40 +2655,40 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>0.054883336555609195</v>
+        <v>0.054466504528356365</v>
       </c>
       <c r="D37" s="1">
-        <v>0.0032082172891589669</v>
+        <v>0.0031838473665171331</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.032637599979515534</v>
+        <v>-0.032377476429909034</v>
       </c>
       <c r="F37" s="1">
-        <v>0.0010443781970907</v>
+        <v>0.0010201288577574334</v>
       </c>
       <c r="G37" s="1">
-        <v>0.0150169959136595</v>
+        <v>0.014777046861127033</v>
       </c>
       <c r="H37" s="1">
-        <v>-0.006705491803586483</v>
+        <v>-0.0066545265726745129</v>
       </c>
       <c r="I37" s="1">
-        <v>1.0348098360090525</v>
+        <v>1.0344155246085991</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>0.0046589388512074947</v>
+        <v>0.0046235118061304092</v>
       </c>
       <c r="L37" s="1">
-        <v>-0.0013816132277427999</v>
+        <v>-0.001370658527227</v>
       </c>
       <c r="M37" s="1">
-        <v>1.003277325518084</v>
+        <v>1.0032528534560097</v>
       </c>
       <c r="N37" s="1">
-        <v>1.0314295291900635</v>
+        <v>1.0310616493225098</v>
       </c>
     </row>
     <row r="38">
@@ -2699,40 +2699,40 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>0.1220350041929366</v>
+        <v>0.12110816370936379</v>
       </c>
       <c r="D38" s="1">
-        <v>0.0071335825207652004</v>
+        <v>0.0070793951517311004</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.072570836620181795</v>
+        <v>-0.071992442877035504</v>
       </c>
       <c r="F38" s="1">
-        <v>0.0028882613327681</v>
+        <v>0.0028211397579987999</v>
       </c>
       <c r="G38" s="1">
-        <v>0.033542331308126401</v>
+        <v>0.033004023134708398</v>
       </c>
       <c r="H38" s="1">
-        <v>-0.014909894205629826</v>
+        <v>-0.014796570874750614</v>
       </c>
       <c r="I38" s="1">
-        <v>1.0781184485541771</v>
+        <v>1.0772237080143181</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>0.010359312407672405</v>
+        <v>0.010280539281666279</v>
       </c>
       <c r="L38" s="1">
-        <v>-0.0030877728055676</v>
+        <v>-0.0030630432137344998</v>
       </c>
       <c r="M38" s="1">
-        <v>1.007271539238181</v>
+        <v>1.007217496193499</v>
       </c>
       <c r="N38" s="1">
-        <v>1.0703354622424639</v>
+        <v>1.069504562902639</v>
       </c>
     </row>
     <row r="39">
@@ -2743,40 +2743,40 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>0.035021882372296399</v>
+        <v>0.034755895587520701</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0020472116962468</v>
+        <v>0.0020316608821419999</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.020826543339589301</v>
+        <v>-0.0206605545909316</v>
       </c>
       <c r="F39" s="1">
-        <v>0.00023393411566739999</v>
+        <v>0.00022855817635210001</v>
       </c>
       <c r="G39" s="1">
-        <v>0.0094668390229344004</v>
+        <v>0.0093173719942569993</v>
       </c>
       <c r="H39" s="1">
-        <v>-0.0042788754217326641</v>
+        <v>-0.0042463536374270916</v>
       </c>
       <c r="I39" s="1">
-        <v>1.0216644486086339</v>
+        <v>1.021426578573263</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>0.0029729388188570738</v>
+        <v>0.0029503325931727886</v>
       </c>
       <c r="L39" s="1">
-        <v>-0.00086962636887000005</v>
+        <v>-0.00086292010129740003</v>
       </c>
       <c r="M39" s="1">
-        <v>1.0021033125043111</v>
+        <v>1.0020874124219401</v>
       </c>
       <c r="N39" s="1">
-        <v>1.019520079277493</v>
+        <v>1.019298881426504</v>
       </c>
     </row>
     <row r="40">
@@ -2787,40 +2787,40 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>0.0075931231015946002</v>
+        <v>0.0075354542881845999</v>
       </c>
       <c r="D40" s="1">
-        <v>0.00044385765046490002</v>
+        <v>0.00044048606567830001</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.0045154199787754996</v>
+        <v>-0.0044794318217600002</v>
       </c>
       <c r="F40" s="1">
-        <v>1.09391428366e-05</v>
+        <v>1.0688638921400001e-05</v>
       </c>
       <c r="G40" s="1">
-        <v>0.0020418174099177001</v>
+        <v>0.0020097454544156998</v>
       </c>
       <c r="H40" s="1">
-        <v>-0.00092770648188889027</v>
+        <v>-0.00092065538046881557</v>
       </c>
       <c r="I40" s="1">
-        <v>1.004646610864347</v>
+        <v>1.0045962872382159</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>0.00064456532709300518</v>
+        <v>0.00063966400921344757</v>
       </c>
       <c r="L40" s="1">
-        <v>-0.0001874405087908</v>
+        <v>-0.00018601226664910001</v>
       </c>
       <c r="M40" s="1">
-        <v>1.00045712481176</v>
+        <v>1.0004536517525899</v>
       </c>
       <c r="N40" s="1">
-        <v>1.004187571809612</v>
+        <v>1.0041407570239449</v>
       </c>
     </row>
     <row r="41">
@@ -2831,13 +2831,13 @@
         <v>0.77409690618515015</v>
       </c>
       <c r="C41" s="1">
-        <v>0.52055460840164813</v>
+        <v>0.52292503405528123</v>
       </c>
       <c r="D41" s="1">
         <v>0.029924926680762749</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.09494321338653354</v>
+        <v>-0.095407499241820459</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>-0.057233817875385285</v>
       </c>
       <c r="I41" s="1">
-        <v>1.1723994177896748</v>
+        <v>1.174305557588021</v>
       </c>
       <c r="J41" s="1">
         <v>0.99999999506716952</v>
@@ -2858,13 +2858,13 @@
         <v>0.017459126189351082</v>
       </c>
       <c r="L41" s="1">
-        <v>-0.0084262641119340186</v>
+        <v>-0.0084634892676286686</v>
       </c>
       <c r="M41" s="1">
-        <v>1.0090328569093821</v>
+        <v>1.0089956317536872</v>
       </c>
       <c r="N41" s="1">
-        <v>1.1619040966033936</v>
+        <v>1.1638361215591431</v>
       </c>
     </row>
     <row r="42">
@@ -2919,13 +2919,13 @@
         <v>0.75</v>
       </c>
       <c r="C43" s="1">
-        <v>0.72094948950781013</v>
+        <v>0.73280161777597552</v>
       </c>
       <c r="D43" s="1">
         <v>0.020049218980181926</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.10989624118896449</v>
+        <v>-0.1122176704653991</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>-0.11895174533128738</v>
       </c>
       <c r="I43" s="1">
-        <v>1.2621506995261014</v>
+        <v>1.2716813985178324</v>
       </c>
       <c r="J43" s="1">
         <v>0.99999996999575602</v>
@@ -2946,13 +2946,13 @@
         <v>0.027408337220549584</v>
       </c>
       <c r="L43" s="1">
-        <v>-0.012009997407308839</v>
+        <v>-0.012196123185782091</v>
       </c>
       <c r="M43" s="1">
-        <v>1.0153983105566074</v>
+        <v>1.0152121847781337</v>
       </c>
       <c r="N43" s="1">
-        <v>1.243010438764895</v>
+        <v>1.252626217046191</v>
       </c>
     </row>
     <row r="44">
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>-0.00028452413561869995</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G63" s="1">
         <v>-0.0021567525806877002</v>
@@ -3817,7 +3817,7 @@
         <v>0.059810437262058258</v>
       </c>
       <c r="I63" s="1">
-        <v>0.45553313785036159</v>
+        <v>0.45553313783304294</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -3826,10 +3826,10 @@
         <v>-0.073530137538909912</v>
       </c>
       <c r="L63" s="1">
-        <v>0.007778710021446901</v>
+        <v>0.0077787100218345085</v>
       </c>
       <c r="M63" s="1">
-        <v>0.93424856849303961</v>
+        <v>0.93424856849342719</v>
       </c>
       <c r="N63" s="1">
         <v>0.48759308457374573</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G64" s="1">
         <v>-0.0021567525806876998</v>
@@ -3861,7 +3861,7 @@
         <v>0.097816668450832367</v>
       </c>
       <c r="I64" s="1">
-        <v>0.11065467018321951</v>
+        <v>0.1106546701659008</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -3870,13 +3870,13 @@
         <v>-0.12014245241880417</v>
       </c>
       <c r="L64" s="1">
-        <v>0.012728728615012201</v>
+        <v>0.0127287286153998</v>
       </c>
       <c r="M64" s="1">
-        <v>0.89258627300870774</v>
+        <v>0.89258627300909532</v>
       </c>
       <c r="N64" s="1">
-        <v>0.1239708401634135</v>
+        <v>0.1239708401439569</v>
       </c>
     </row>
     <row r="65">
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G65" s="1">
         <v>-0.0021567525806876998</v>
@@ -3905,7 +3905,7 @@
         <v>0.084412090480327606</v>
       </c>
       <c r="I65" s="1">
-        <v>0.23229130258646671</v>
+        <v>0.23229130256914801</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
@@ -3914,13 +3914,13 @@
         <v>-0.10370256006717682</v>
       </c>
       <c r="L65" s="1">
-        <v>0.010982885808044501</v>
+        <v>0.0109828858084321</v>
       </c>
       <c r="M65" s="1">
-        <v>0.90728032264069047</v>
+        <v>0.90728032264107805</v>
       </c>
       <c r="N65" s="1">
-        <v>0.25603035444477601</v>
+        <v>0.25603035442557798</v>
       </c>
     </row>
     <row r="66">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G66" s="1">
         <v>-0.0021567525806876998</v>
@@ -3949,7 +3949,7 @@
         <v>0.078241728246212006</v>
       </c>
       <c r="I66" s="1">
-        <v>0.28828276829589711</v>
+        <v>0.28828276827857852</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -3958,13 +3958,13 @@
         <v>-0.096134990453720093</v>
       </c>
       <c r="L66" s="1">
-        <v>0.010179243881027601</v>
+        <v>0.010179243881415201</v>
       </c>
       <c r="M66" s="1">
-        <v>0.91404425024906344</v>
+        <v>0.91404425024945102</v>
       </c>
       <c r="N66" s="1">
-        <v>0.31539257340915872</v>
+        <v>0.3153925733900777</v>
       </c>
     </row>
     <row r="67">
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G67" s="1">
         <v>-0.0021567525806876998</v>
@@ -3993,7 +3993,7 @@
         <v>0.075475707650184631</v>
       </c>
       <c r="I67" s="1">
-        <v>0.31338239085529751</v>
+        <v>0.31338239083797881</v>
       </c>
       <c r="J67" s="1">
         <v>1</v>
@@ -4002,13 +4002,13 @@
         <v>-0.092742636799812317</v>
       </c>
       <c r="L67" s="1">
-        <v>0.0098189906033993007</v>
+        <v>0.0098189906037869004</v>
       </c>
       <c r="M67" s="1">
-        <v>0.91707635572867885</v>
+        <v>0.91707635572906643</v>
       </c>
       <c r="N67" s="1">
-        <v>0.34171897345046492</v>
+        <v>0.34171897343143581</v>
       </c>
     </row>
     <row r="68">
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G68" s="1">
         <v>-0.0021567525806876998</v>
@@ -4037,7 +4037,7 @@
         <v>0.071007512509822846</v>
       </c>
       <c r="I68" s="1">
-        <v>0.35392793498971298</v>
+        <v>0.35392793497239428</v>
       </c>
       <c r="J68" s="1">
         <v>1</v>
@@ -4046,13 +4046,13 @@
         <v>-0.087262667715549469</v>
       </c>
       <c r="L68" s="1">
-        <v>0.0092370430010766998</v>
+        <v>0.0092370430014642995</v>
       </c>
       <c r="M68" s="1">
-        <v>0.92197437227267309</v>
+        <v>0.92197437227306067</v>
       </c>
       <c r="N68" s="1">
-        <v>0.38388044791014991</v>
+        <v>0.38388044789120412</v>
       </c>
     </row>
     <row r="69">
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G69" s="1">
         <v>-0.0021567525806876998</v>
@@ -4081,7 +4081,7 @@
         <v>0.068667031824588776</v>
       </c>
       <c r="I69" s="1">
-        <v>0.37516607715535921</v>
+        <v>0.37516607713804062</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -4090,13 +4090,13 @@
         <v>-0.084392212331295014</v>
       </c>
       <c r="L69" s="1">
-        <v>0.0089322133046220008</v>
+        <v>0.0089322133050096005</v>
       </c>
       <c r="M69" s="1">
-        <v>0.92453999998619385</v>
+        <v>0.92453999998658143</v>
       </c>
       <c r="N69" s="1">
-        <v>0.40578674493365519</v>
+        <v>0.40578674491475297</v>
       </c>
     </row>
     <row r="70">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G70" s="1">
         <v>-0.0021567525806876998</v>
@@ -4125,7 +4125,7 @@
         <v>0.062709443271160126</v>
       </c>
       <c r="I70" s="1">
-        <v>0.42922680266791352</v>
+        <v>0.42922680265059482</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -4134,13 +4134,13 @@
         <v>-0.077085591852664948</v>
       </c>
       <c r="L70" s="1">
-        <v>0.0081562831681918999</v>
+        <v>0.0081562831685794996</v>
       </c>
       <c r="M70" s="1">
-        <v>0.93107068871151955</v>
+        <v>0.93107068871190712</v>
       </c>
       <c r="N70" s="1">
-        <v>0.46100345319849723</v>
+        <v>0.46100345317970443</v>
       </c>
     </row>
     <row r="71">
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G71" s="1">
         <v>-0.0021567525806876998</v>
@@ -4169,7 +4169,7 @@
         <v>0.05951787531375885</v>
       </c>
       <c r="I71" s="1">
-        <v>0.4581879056210672</v>
+        <v>0.4581879056037485</v>
       </c>
       <c r="J71" s="1">
         <v>1</v>
@@ -4178,13 +4178,13 @@
         <v>-0.073171332478523254</v>
       </c>
       <c r="L71" s="1">
-        <v>0.0077406063093901001</v>
+        <v>0.0077406063097776997</v>
       </c>
       <c r="M71" s="1">
-        <v>0.93456927195722961</v>
+        <v>0.93456927195761719</v>
       </c>
       <c r="N71" s="1">
-        <v>0.49026639262545341</v>
+        <v>0.49026639260671878</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G72" s="1">
         <v>-0.0021567525806876998</v>
@@ -4213,7 +4213,7 @@
         <v>0.042070649564266205</v>
       </c>
       <c r="I72" s="1">
-        <v>0.61650860176497602</v>
+        <v>0.61650860174765732</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -4222,13 +4222,13 @@
         <v>-0.051773380488157272</v>
       </c>
       <c r="L72" s="1">
-        <v>0.0054682394812732996</v>
+        <v>0.0054682394816609001</v>
       </c>
       <c r="M72" s="1">
-        <v>0.95369486036711182</v>
+        <v>0.9536948603674994</v>
       </c>
       <c r="N72" s="1">
-        <v>0.64644219800834346</v>
+        <v>0.6464421979899212</v>
       </c>
     </row>
     <row r="73">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G73" s="1">
         <v>-0.0021567525806876998</v>
@@ -4257,7 +4257,7 @@
         <v>0.034836433827877045</v>
       </c>
       <c r="I73" s="1">
-        <v>0.6821537684587915</v>
+        <v>0.6821537684414728</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -4266,13 +4266,13 @@
         <v>-0.042901057749986649</v>
       </c>
       <c r="L73" s="1">
-        <v>0.0045260386013224003</v>
+        <v>0.0045260386017100997</v>
       </c>
       <c r="M73" s="1">
-        <v>0.96162498239072147</v>
+        <v>0.96162498239110916</v>
       </c>
       <c r="N73" s="1">
-        <v>0.70937608834045773</v>
+        <v>0.70937608832216181</v>
       </c>
     </row>
     <row r="74">
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G74" s="1">
         <v>-0.0021567525806876998</v>
@@ -4301,7 +4301,7 @@
         <v>0.034091737121343613</v>
       </c>
       <c r="I74" s="1">
-        <v>0.68891135914786061</v>
+        <v>0.68891135913054191</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -4310,13 +4310,13 @@
         <v>-0.041987728327512741</v>
       </c>
       <c r="L74" s="1">
-        <v>0.0044290473342686997</v>
+        <v>0.0044290473346563003</v>
       </c>
       <c r="M74" s="1">
-        <v>0.96244131848138714</v>
+        <v>0.96244131848177472</v>
       </c>
       <c r="N74" s="1">
-        <v>0.71579570194978448</v>
+        <v>0.71579570193150166</v>
       </c>
     </row>
     <row r="75">
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G75" s="1">
         <v>-0.0021567525806876998</v>
@@ -4345,7 +4345,7 @@
         <v>0.008878365159034729</v>
       </c>
       <c r="I75" s="1">
-        <v>0.91770407247777719</v>
+        <v>0.9177040724604586</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -4354,13 +4354,13 @@
         <v>-0.011065074242651463</v>
       </c>
       <c r="L75" s="1">
-        <v>0.0011452001497341</v>
+        <v>0.0011452001501217001</v>
       </c>
       <c r="M75" s="1">
-        <v>0.99008012612249752</v>
+        <v>0.9900801261228851</v>
       </c>
       <c r="N75" s="1">
-        <v>0.92689879158753497</v>
+        <v>0.92689879156968003</v>
       </c>
     </row>
     <row r="76">
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G76" s="1">
         <v>-0.0021567525806876998</v>
@@ -4389,7 +4389,7 @@
         <v>0.097368381917476654</v>
       </c>
       <c r="I76" s="1">
-        <v>0.1147225313886558</v>
+        <v>0.1147225313713371</v>
       </c>
       <c r="J76" s="1">
         <v>1</v>
@@ -4398,13 +4398,13 @@
         <v>-0.11959265917539597</v>
       </c>
       <c r="L76" s="1">
-        <v>0.0126703428632454</v>
+        <v>0.012670342863633</v>
       </c>
       <c r="M76" s="1">
-        <v>0.89307768216126093</v>
+        <v>0.89307768216164851</v>
       </c>
       <c r="N76" s="1">
-        <v>0.12845750563492489</v>
+        <v>0.12845750561547689</v>
       </c>
     </row>
     <row r="77">
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G77" s="1">
         <v>-0.0021567525806876998</v>
@@ -4433,7 +4433,7 @@
         <v>0.092497386038303375</v>
       </c>
       <c r="I77" s="1">
-        <v>0.15892317510514289</v>
+        <v>0.15892317508782419</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -4442,13 +4442,13 @@
         <v>-0.11361868679523468</v>
       </c>
       <c r="L77" s="1">
-        <v>0.0120359338503425</v>
+        <v>0.0120359338507301</v>
       </c>
       <c r="M77" s="1">
-        <v>0.8984172450848914</v>
+        <v>0.89841724508527898</v>
       </c>
       <c r="N77" s="1">
-        <v>0.17689239156370631</v>
+        <v>0.1768923915443531</v>
       </c>
     </row>
     <row r="78">
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G78" s="1">
         <v>-0.0021567525806876998</v>
@@ -4477,7 +4477,7 @@
         <v>0.074411846697330475</v>
       </c>
       <c r="I78" s="1">
-        <v>0.32303609183968229</v>
+        <v>0.32303609182236359</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -4486,13 +4486,13 @@
         <v>-0.091437883675098419</v>
       </c>
       <c r="L78" s="1">
-        <v>0.0096804316504654001</v>
+        <v>0.0096804316508529997</v>
       </c>
       <c r="M78" s="1">
-        <v>0.91824255014391565</v>
+        <v>0.91824255014430323</v>
       </c>
       <c r="N78" s="1">
-        <v>0.35179821691888819</v>
+        <v>0.351798216899879</v>
       </c>
     </row>
     <row r="79">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G79" s="1">
         <v>-0.0021567525806876998</v>
@@ -4521,7 +4521,7 @@
         <v>0.071220286190509796</v>
       </c>
       <c r="I79" s="1">
-        <v>0.35199719479283609</v>
+        <v>0.3519971947755175</v>
       </c>
       <c r="J79" s="1">
         <v>1</v>
@@ -4530,13 +4530,13 @@
         <v>-0.087523624300956726</v>
       </c>
       <c r="L79" s="1">
-        <v>0.0092647547916635004</v>
+        <v>0.0092647547920511001</v>
       </c>
       <c r="M79" s="1">
-        <v>0.92174113338962582</v>
+        <v>0.9217411333900134</v>
       </c>
       <c r="N79" s="1">
-        <v>0.38188291922960621</v>
+        <v>0.38188291921065648</v>
       </c>
     </row>
     <row r="80">
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G80" s="1">
         <v>-0.0021567525806876998</v>
@@ -4565,7 +4565,7 @@
         <v>0.06675209105014801</v>
       </c>
       <c r="I80" s="1">
-        <v>0.39254273892725161</v>
+        <v>0.39254273890993291</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
@@ -4574,13 +4574,13 @@
         <v>-0.082043655216693878</v>
       </c>
       <c r="L80" s="1">
-        <v>0.0086828071893408996</v>
+        <v>0.0086828071897284993</v>
       </c>
       <c r="M80" s="1">
-        <v>0.92663914993361996</v>
+        <v>0.92663914993400753</v>
       </c>
       <c r="N80" s="1">
-        <v>0.42361985132548252</v>
+        <v>0.42361985130661561</v>
       </c>
     </row>
     <row r="81">
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>-0.0002845241356187</v>
+        <v>-0.00028452415293730001</v>
       </c>
       <c r="G81" s="1">
         <v>-0.0021567525806876998</v>
@@ -4609,7 +4609,7 @@
         <v>0.014133810997009277</v>
       </c>
       <c r="I81" s="1">
-        <v>0.87001478961491663</v>
+        <v>0.87001478959759793</v>
       </c>
       <c r="J81" s="1">
         <v>1</v>
@@ -4618,13 +4618,13 @@
         <v>-0.017510555684566498</v>
       </c>
       <c r="L81" s="1">
-        <v>0.0018296813772278001</v>
+        <v>0.0018296813776154</v>
       </c>
       <c r="M81" s="1">
-        <v>0.98431912571122804</v>
+        <v>0.98431912571161562</v>
       </c>
       <c r="N81" s="1">
-        <v>0.88387471795417993</v>
+        <v>0.88387471793623729</v>
       </c>
     </row>
     <row r="82">
